--- a/イベント一覧_結合テスト.xlsx
+++ b/イベント一覧_結合テスト.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/ketugou-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{0E02FCD3-8EAC-4D10-9ADF-4E91556B64B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EECD2CC-C91D-49E7-B543-EAF434D2CE24}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{0E02FCD3-8EAC-4D10-9ADF-4E91556B64B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2036E40-B37D-47B2-8EDE-B4E80E885AE2}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="135">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -1171,69 +1171,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>△</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アカウント情報が降順で追加されている</t>
-    <rPh sb="5" eb="7">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>コウジュン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「エラーが発生したためアカウントが登録</t>
-    <rPh sb="5" eb="7">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>できませんでした。」の誤表記</t>
-    <rPh sb="11" eb="12">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アカウント登録時にエラーが発生するとその</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ハッセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>間のID番号は表示されない。</t>
-    <rPh sb="0" eb="1">
-      <t>アイダ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>3.DBと同一か確認</t>
     <rPh sb="5" eb="7">
       <t>ドウイツ</t>
@@ -1244,10 +1181,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>登録されているアカウントをすべて表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>3.DBで確認</t>
     <rPh sb="5" eb="7">
       <t>カクニン</t>
@@ -1265,65 +1198,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プロフィール画像とニックネームが表示</t>
-    <rPh sb="6" eb="8">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アカウント情報画面に遷移</t>
-    <rPh sb="5" eb="7">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>該当アカウントの情報の表示</t>
-    <rPh sb="0" eb="2">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アカウント登録画面に遷移</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アカウント情報の非表示</t>
-    <rPh sb="5" eb="7">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>ヒヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メニューの「イベント」押下後イベント一覧画面に遷移するか</t>
     <rPh sb="11" eb="13">
       <t>オウカ</t>
@@ -1803,40 +1677,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>参加ボタンを押すと、参加人数は増え、不参加ボタンを押すと、参加人数は減る</t>
-    <rPh sb="0" eb="2">
-      <t>サンカ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>サンカ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ニンズウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="18" eb="21">
-      <t>フサンカ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>サンカ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ニンズウ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ヘ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2.イベント一覧画面のイベントを押す</t>
     <rPh sb="6" eb="8">
       <t>イチラン</t>
@@ -1920,6 +1760,168 @@
     </rPh>
     <rPh sb="15" eb="16">
       <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録されているイベントをすべて表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルと登録日が表示</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント情報画面に遷移</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当イベントの情報の表示</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベントが終了していない場合、白背景で表示、終了している場合、</t>
+    <rPh sb="5" eb="7">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>灰色背景で表示</t>
+  </si>
+  <si>
+    <t>イベント情報が降順で追加されている</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウジュン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント情報の非表示</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参加ボタンを押すと、参加人数は増え、不参加ボタンを押すと、</t>
+    <rPh sb="0" eb="2">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニンズウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>フサンカ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参加人数は減る</t>
+  </si>
+  <si>
+    <t>チャット画面に遷移</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.イベント情報画面のチャットボタンを押す</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.チャット画面に遷移</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.削除されたイベントにidでアクセスする</t>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2749,7 +2751,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{595E0200-4F6A-4428-9E17-0F7DABF158CB}" name="テーブル22" displayName="テーブル22" ref="A7:I18" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{595E0200-4F6A-4428-9E17-0F7DABF158CB}" name="テーブル22" displayName="テーブル22" ref="A7:I17" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{FCBC70BC-57DB-4BA0-9867-578EEFB33D05}" name="項目番号" dataDxfId="32"/>
     <tableColumn id="2" xr3:uid="{E67CBCB0-E7EE-4E9F-8729-B9F43E372CDF}" name="大項目" dataDxfId="31"/>
@@ -2766,7 +2768,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D247318E-457A-4BAE-9D8B-043A2F848221}" name="テーブル36" displayName="テーブル36" ref="A19:I23" headerRowCount="0" totalsRowShown="0" headerRowDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D247318E-457A-4BAE-9D8B-043A2F848221}" name="テーブル36" displayName="テーブル36" ref="A18:I22" headerRowCount="0" totalsRowShown="0" headerRowDxfId="23">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{8ACCE799-FC41-4AFA-AE20-7E57D353EBCB}" name="項目番号" headerRowDxfId="22" dataDxfId="21"/>
     <tableColumn id="2" xr3:uid="{7A5C52A6-40D8-4ED3-ACD4-773F0CA04A2B}" name="大項目" headerRowDxfId="20"/>
@@ -3136,7 +3138,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:I33"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3147,7 +3149,7 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -3160,7 +3162,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3187,12 +3189,12 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>45999</v>
+        <v>46001</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3233,16 +3235,16 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G8" s="4">
-        <v>45811</v>
+        <v>85</v>
+      </c>
+      <c r="G8" s="3">
+        <v>46002</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>73</v>
@@ -3255,7 +3257,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -3271,16 +3273,16 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" s="4">
-        <v>45811</v>
+        <v>121</v>
+      </c>
+      <c r="G10" s="3">
+        <v>46002</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>73</v>
@@ -3293,7 +3295,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -3306,7 +3308,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -3322,16 +3324,16 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G13" s="4">
-        <v>45811</v>
+        <v>82</v>
+      </c>
+      <c r="G13" s="3">
+        <v>46002</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>73</v>
@@ -3344,7 +3346,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -3357,7 +3359,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -3373,16 +3375,16 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="4">
-        <v>45811</v>
+        <v>122</v>
+      </c>
+      <c r="G16" s="3">
+        <v>46002</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>73</v>
@@ -3395,7 +3397,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="4"/>
@@ -3411,16 +3413,16 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G18" s="4">
-        <v>45811</v>
+        <v>123</v>
+      </c>
+      <c r="G18" s="3">
+        <v>46002</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>73</v>
@@ -3433,7 +3435,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="4"/>
@@ -3449,16 +3451,16 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G20" s="4">
-        <v>45811</v>
+        <v>124</v>
+      </c>
+      <c r="G20" s="3">
+        <v>46002</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>73</v>
@@ -3471,7 +3473,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="4"/>
@@ -3484,7 +3486,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="4"/>
@@ -3500,16 +3502,16 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G23" s="4">
-        <v>45811</v>
+        <v>125</v>
+      </c>
+      <c r="G23" s="3">
+        <v>46002</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>73</v>
@@ -3522,9 +3524,11 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F24" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -3538,23 +3542,21 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G25" s="4">
-        <v>45811</v>
+        <v>127</v>
+      </c>
+      <c r="G25" s="3">
+        <v>46002</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I25" s="2" t="s">
-        <v>84</v>
-      </c>
+      <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2"/>
@@ -3565,9 +3567,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="4"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="2" t="s">
-        <v>85</v>
-      </c>
+      <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2">
@@ -3578,16 +3578,16 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G27" s="4">
-        <v>45811</v>
+        <v>128</v>
+      </c>
+      <c r="G27" s="3">
+        <v>46002</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>73</v>
@@ -3614,23 +3614,21 @@
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G29" s="4">
-        <v>45811</v>
+        <v>103</v>
+      </c>
+      <c r="G29" s="3">
+        <v>46002</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>82</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="I29" s="7"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="7"/>
@@ -3640,14 +3638,12 @@
         <v>13</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
-      <c r="I30" s="7" t="s">
-        <v>83</v>
-      </c>
+      <c r="I30" s="7"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2"/>
@@ -3655,7 +3651,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -3664,23 +3660,23 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G32" s="4">
-        <v>45991</v>
+        <v>111</v>
+      </c>
+      <c r="G32" s="3">
+        <v>46002</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>73</v>
@@ -3713,10 +3709,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{920AA330-C436-4081-9E46-7073F109DD17}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3727,7 +3723,7 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -3740,7 +3736,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3767,12 +3763,12 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>45999</v>
+        <v>46001</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3813,16 +3809,16 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G8" s="4">
-        <v>45811</v>
+        <v>129</v>
+      </c>
+      <c r="G8" s="3">
+        <v>46002</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>73</v>
@@ -3835,7 +3831,9 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -3849,16 +3847,16 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1</v>
+        <v>108</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" s="4">
-        <v>45811</v>
+        <v>131</v>
+      </c>
+      <c r="G10" s="3">
+        <v>46002</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>73</v>
@@ -3871,7 +3869,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -3883,9 +3881,7 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -3900,16 +3896,16 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G13" s="4">
-        <v>45811</v>
+        <v>117</v>
+      </c>
+      <c r="G13" s="3">
+        <v>46002</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>73</v>
@@ -3921,140 +3917,125 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="A15" s="7">
+        <v>4</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>94</v>
+      </c>
       <c r="E15" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="3">
+        <v>46002</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="7">
-        <v>4</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="G16" s="4">
-        <v>45811</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>82</v>
-      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7" t="s">
-        <v>83</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="2">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="E18" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G18" s="3">
+        <v>46002</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="2">
-        <v>5</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G19" s="4">
-        <v>45991</v>
-      </c>
-      <c r="H19" s="2" t="s">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="2">
+        <v>6</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G20" s="3">
+        <v>46002</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="2">
-        <v>6</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/イベント一覧_結合テスト.xlsx
+++ b/イベント一覧_結合テスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/ketugou-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{0E02FCD3-8EAC-4D10-9ADF-4E91556B64B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2036E40-B37D-47B2-8EDE-B4E80E885AE2}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{0E02FCD3-8EAC-4D10-9ADF-4E91556B64B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C8579DB-BA90-4CB7-882B-62833CDCE4F2}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
+    <workbookView xWindow="3540" yWindow="3730" windowWidth="16920" windowHeight="10340" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="イベント一覧画面" sheetId="1" r:id="rId1"/>
@@ -3137,8 +3137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="E14" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3623,10 +3623,10 @@
         <v>103</v>
       </c>
       <c r="G29" s="3">
-        <v>46002</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>74</v>
+        <v>46007</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="I29" s="7"/>
     </row>
@@ -3711,7 +3711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{920AA330-C436-4081-9E46-7073F109DD17}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
